--- a/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_2_five_bus_radial_grid_dyn_pf_sc_results_1_bus.xlsx
+++ b/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_2_five_bus_radial_grid_dyn_pf_sc_results_1_bus.xlsx
@@ -538,10 +538,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8909260930483741</v>
+        <v>0.8909260930483742</v>
       </c>
       <c r="G2">
-        <v>0.7139956970177318</v>
+        <v>0.7139956970177317</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10247,7 +10247,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.04659506804995</v>
+        <v>1.046595068049951</v>
       </c>
       <c r="O2">
         <v>0.890926093052382</v>
@@ -10256,10 +10256,10 @@
         <v>1.056652021165216</v>
       </c>
       <c r="Q2">
-        <v>25.18850204033978</v>
+        <v>25.18850204033979</v>
       </c>
       <c r="R2">
-        <v>-89.28600430314907</v>
+        <v>-89.28600430314906</v>
       </c>
       <c r="S2">
         <v>155.0677071882993</v>
@@ -10273,55 +10273,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.759944874248878</v>
+        <v>4.759944874248879</v>
       </c>
       <c r="D3">
-        <v>4.759944874248878</v>
+        <v>4.759944874248879</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>54.96310908950738</v>
+        <v>54.9631090895074</v>
       </c>
       <c r="G3">
-        <v>54.96310908950738</v>
+        <v>54.9631090895074</v>
       </c>
       <c r="H3">
-        <v>1.008188467508785E-06</v>
+        <v>1.008188467557574E-06</v>
       </c>
       <c r="I3">
-        <v>0.4682109449154841</v>
+        <v>0.4682109449154836</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063995</v>
+        <v>0.1077319054064007</v>
       </c>
       <c r="K3">
-        <v>2.308438694631238</v>
+        <v>2.308438694631236</v>
       </c>
       <c r="L3">
         <v>0.1077319054131821</v>
       </c>
       <c r="M3">
-        <v>2.308438694642889</v>
+        <v>2.308438694642888</v>
       </c>
       <c r="N3">
-        <v>0.9526279648020826</v>
+        <v>0.9526279648020823</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279648025198</v>
+        <v>0.9526279648025195</v>
       </c>
       <c r="Q3">
-        <v>-4.069505093828522E-12</v>
+        <v>-4.032688494405956E-12</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.99999999999</v>
+        <v>-179.9999999999899</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10374,13 +10374,13 @@
         <v>0.9526279648292909</v>
       </c>
       <c r="Q4">
-        <v>1.415044165032323E-09</v>
+        <v>1.415092762849702E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999985763</v>
+        <v>179.9999999985764</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10433,7 +10433,7 @@
         <v>0.9526279648382148</v>
       </c>
       <c r="Q5">
-        <v>1.88807568571382E-09</v>
+        <v>1.888127462901005E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -10483,16 +10483,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279647663877</v>
+        <v>0.9526279647663876</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279648382148</v>
+        <v>0.9526279648382145</v>
       </c>
       <c r="Q6">
-        <v>1.888076414224206E-09</v>
+        <v>1.888125004149855E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
